--- a/Realme/DECEMBER/All Details/02.12.2021/realme Bank Statement November 2021.xlsx
+++ b/Realme/DECEMBER/All Details/02.12.2021/realme Bank Statement November 2021.xlsx
@@ -31,8 +31,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>8801715116767</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A4 Paper
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -268,13 +293,28 @@
     <t>01.12.2021</t>
   </si>
   <si>
-    <t>Date: 01.12.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">General Cost </t>
   </si>
   <si>
     <t>S= Dighi Telecom</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
+  </si>
+  <si>
+    <t>Date: 02.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sojol </t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>02.11.2021</t>
+  </si>
+  <si>
+    <t>Jafor bKash(-)</t>
   </si>
 </sst>
 </file>
@@ -284,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -587,6 +627,13 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2362,10 +2409,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="40" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3042,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3122,12 +3169,18 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="15"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="19">
+        <v>220000</v>
+      </c>
+      <c r="D6" s="153">
+        <v>214800</v>
+      </c>
       <c r="E6" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>12030</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="1"/>
@@ -3138,12 +3191,18 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="19">
+        <v>66000</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
       <c r="E7" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>78030</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="1"/>
@@ -3154,12 +3213,18 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="19">
+        <v>480000</v>
+      </c>
+      <c r="D8" s="153">
+        <v>546400</v>
+      </c>
       <c r="E8" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="1"/>
@@ -3175,7 +3240,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="1"/>
@@ -3191,7 +3256,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="1"/>
@@ -3207,7 +3272,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="23"/>
@@ -3223,7 +3288,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
@@ -3239,7 +3304,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="1"/>
@@ -3255,7 +3320,7 @@
       <c r="D14" s="181"/>
       <c r="E14" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="1"/>
@@ -3271,7 +3336,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
@@ -3287,7 +3352,7 @@
       <c r="D16" s="183"/>
       <c r="E16" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="8"/>
@@ -3303,7 +3368,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="185">
         <f>E16+C17-D17</f>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="8"/>
@@ -3319,7 +3384,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -3335,7 +3400,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
@@ -3351,7 +3416,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="185">
         <f>E19+C20-D20</f>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="7"/>
@@ -3367,7 +3432,7 @@
       <c r="D21" s="181"/>
       <c r="E21" s="194">
         <f>E20+C21-D21</f>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
@@ -3383,7 +3448,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="185">
         <f>E21+C22-D22</f>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="1"/>
@@ -3399,7 +3464,7 @@
       <c r="D23" s="183"/>
       <c r="E23" s="32">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
@@ -3415,7 +3480,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
@@ -3431,7 +3496,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="1"/>
@@ -3447,7 +3512,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="1"/>
@@ -3463,7 +3528,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="1"/>
@@ -3479,7 +3544,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -3495,7 +3560,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
@@ -3511,7 +3576,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1"/>
@@ -3527,7 +3592,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1"/>
@@ -3543,7 +3608,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -3559,7 +3624,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -3575,7 +3640,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="1"/>
@@ -3591,7 +3656,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="1"/>
@@ -3607,7 +3672,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="185">
         <f t="shared" si="0"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3623,7 +3688,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="185">
         <f t="shared" ref="E37:E50" si="1">E36+C37-D37</f>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -3639,7 +3704,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -3655,7 +3720,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -3671,7 +3736,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -3687,7 +3752,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -3703,7 +3768,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -3716,7 +3781,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -3729,7 +3794,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -3742,7 +3807,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -3755,7 +3820,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -3768,7 +3833,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -3780,7 +3845,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -3792,7 +3857,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -3804,7 +3869,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="185">
         <f t="shared" si="1"/>
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -3814,11 +3879,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>6830</v>
+        <v>772830</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>0</v>
+        <v>761200</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
@@ -3841,11 +3906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4017,7 +4082,9 @@
       </c>
       <c r="B6" s="117"/>
       <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
+      <c r="D6" s="118">
+        <v>200</v>
+      </c>
       <c r="E6" s="118"/>
       <c r="F6" s="118"/>
       <c r="G6" s="118">
@@ -4038,7 +4105,7 @@
       <c r="P6" s="120"/>
       <c r="Q6" s="121">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="R6" s="122"/>
       <c r="S6" s="123"/>
@@ -4048,16 +4115,26 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="117">
+        <v>200</v>
+      </c>
       <c r="C7" s="117"/>
       <c r="D7" s="118"/>
       <c r="E7" s="118"/>
       <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="G7" s="118">
+        <v>70</v>
+      </c>
       <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="118"/>
+      <c r="I7" s="119">
+        <v>20</v>
+      </c>
+      <c r="J7" s="118">
+        <v>160</v>
+      </c>
       <c r="K7" s="118"/>
       <c r="L7" s="118"/>
       <c r="M7" s="154"/>
@@ -4066,7 +4143,7 @@
       <c r="P7" s="120"/>
       <c r="Q7" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R7" s="122"/>
       <c r="S7" s="26"/>
@@ -4834,7 +4911,7 @@
       </c>
       <c r="B37" s="142">
         <f>SUM(B6:B36)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C37" s="143">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -4842,7 +4919,7 @@
       </c>
       <c r="D37" s="143">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E37" s="143">
         <f t="shared" si="1"/>
@@ -4854,7 +4931,7 @@
       </c>
       <c r="G37" s="143">
         <f>SUM(G6:G36)</f>
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="H37" s="143">
         <f t="shared" si="1"/>
@@ -4862,11 +4939,11 @@
       </c>
       <c r="I37" s="143">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J37" s="143">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K37" s="143">
         <f t="shared" si="1"/>
@@ -4894,7 +4971,7 @@
       </c>
       <c r="Q37" s="145">
         <f>SUM(Q6:Q36)</f>
-        <v>680</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6918,6 +6995,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8911,12 +8989,12 @@
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44">
-        <v>-327800</v>
+        <v>-330570</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44">
         <f t="shared" si="0"/>
-        <v>-327800</v>
+        <v>-330570</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="58"/>
@@ -9121,7 +9199,7 @@
       </c>
       <c r="C33" s="44">
         <f>SUM(C5:C32)</f>
-        <v>-327800</v>
+        <v>-330570</v>
       </c>
       <c r="D33" s="44">
         <f>SUM(D5:D32)</f>
@@ -9129,11 +9207,11 @@
       </c>
       <c r="E33" s="44">
         <f>SUM(E5:E32)</f>
-        <v>-327800</v>
+        <v>-330570</v>
       </c>
       <c r="F33" s="44">
         <f>B33-E33</f>
-        <v>327800</v>
+        <v>330570</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="167"/>
@@ -10192,10 +10270,18 @@
       <c r="BI48" s="160"/>
     </row>
     <row r="49" spans="1:61">
-      <c r="A49" s="243"/>
-      <c r="B49" s="239"/>
-      <c r="C49" s="240"/>
-      <c r="D49" s="242"/>
+      <c r="A49" s="243" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="239" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="240">
+        <v>2770</v>
+      </c>
+      <c r="D49" s="242" t="s">
+        <v>84</v>
+      </c>
       <c r="E49" s="48"/>
       <c r="F49" s="161"/>
       <c r="G49" s="161"/>
@@ -14215,7 +14301,7 @@
       <c r="B113" s="275"/>
       <c r="C113" s="211">
         <f>SUM(C37:C112)</f>
-        <v>327800</v>
+        <v>330570</v>
       </c>
       <c r="D113" s="210"/>
       <c r="F113" s="90"/>
@@ -14344,7 +14430,7 @@
       <c r="B115" s="277"/>
       <c r="C115" s="209">
         <f>C113+L116</f>
-        <v>327800</v>
+        <v>330570</v>
       </c>
       <c r="D115" s="208"/>
       <c r="F115" s="90"/>
@@ -15643,7 +15729,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15686,7 +15772,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="294" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B3" s="295"/>
       <c r="C3" s="295"/>
@@ -15764,7 +15850,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="225">
-        <v>5979330</v>
+        <v>5689570</v>
       </c>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
@@ -15793,14 +15879,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="186">
-        <v>19430</v>
+        <v>32330</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="176" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="187">
-        <v>6830</v>
+        <v>11630</v>
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="1"/>
@@ -15832,7 +15918,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="226">
-        <v>489990</v>
+        <v>42030</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="29"/>
@@ -15891,10 +15977,10 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="186">
-        <v>680</v>
+        <v>1330</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="176"/>
@@ -15936,7 +16022,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="187">
-        <v>327800</v>
+        <v>330570</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="29"/>
@@ -15969,14 +16055,14 @@
       </c>
       <c r="B11" s="227">
         <f>B6-B10-B9+B7</f>
-        <v>18750</v>
+        <v>31000</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="176" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="187">
-        <v>214800</v>
+        <v>557200</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="29"/>
@@ -16074,8 +16160,12 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="232"/>
-      <c r="B14" s="233"/>
+      <c r="A14" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="227">
+        <v>400000</v>
+      </c>
       <c r="C14" s="33"/>
       <c r="D14" s="176"/>
       <c r="E14" s="187"/>
@@ -16141,8 +16231,8 @@
         <v>4</v>
       </c>
       <c r="B16" s="186">
-        <f>B5+B6-B9+B13-B10</f>
-        <v>7018750</v>
+        <f>B5+B6-B9+B13-B10-B14</f>
+        <v>6631000</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="176" t="s">
@@ -16150,7 +16240,7 @@
       </c>
       <c r="E16" s="187">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>7018750</v>
+        <v>6631000</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="153">
@@ -16254,7 +16344,7 @@
       </c>
       <c r="C19" s="248"/>
       <c r="D19" s="249" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="250">
         <v>21270</v>
